--- a/source/resources/source-data/graphdefinition2-admit.xlsx
+++ b/source/resources/source-data/graphdefinition2-admit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C7EB2D-CD79-4131-BC18-38D135B46F3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40EE9D2-4B3F-4F12-BCD2-177E008216E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{E8C7B53C-EEA7-46E5-80C5-90610EF218CF}"/>
   </bookViews>
